--- a/DAP/significance_testing/Significance_testing_DAP.xlsx
+++ b/DAP/significance_testing/Significance_testing_DAP.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AZAG\Documents\MSNA\2020\MSNA\5Data_Analysis\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mh1\REACH\2020_BGD_MSNAs\DAP\significance_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D5E3CE-F790-4804-9095-453774BFF9EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F3EBEF01-ED6E-4B4B-A6B6-D9CA98FA7C18}"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="23253" windowHeight="12573"/>
   </bookViews>
   <sheets>
     <sheet name="Significance_testing_DAP" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Significance_testing_DAP!$A$1:$H$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Significance_testing_DAP!$A$1:$J$135</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="268">
   <si>
     <t>Population</t>
   </si>
@@ -740,13 +742,110 @@
     <t>Households having adopted crisis/emergency coping strategies:
 for refugee: if(depending_on_food_rations ==1 | selling_labor == 1 | reduced_nonessential_expenditures == 1 | begging == 1)
 for HC: if(depending_on_food_rations ==1 | selling_labor == 1 | begging == 1)</t>
+  </si>
+  <si>
+    <t>new_name</t>
+  </si>
+  <si>
+    <t>I.HH_CHAR.atlst_one_shelter_issue.HH</t>
+  </si>
+  <si>
+    <t>I.HH_CHAR.atlst_one_shelter_mobility.HH</t>
+  </si>
+  <si>
+    <t>I.HH_CHAR.pay_anythng_to_live.HH</t>
+  </si>
+  <si>
+    <t>I.HH_CHAR.not_having_light.HH</t>
+  </si>
+  <si>
+    <t>I.HH_CHAR.atlst_one_birth_plc_home.INDVHH</t>
+  </si>
+  <si>
+    <t>I.HH_CHAR.incm_src_employ_business.HH</t>
+  </si>
+  <si>
+    <t>I.HH_CHAR.emergency_cping_strategy.HH</t>
+  </si>
+  <si>
+    <t>I.HH_CHAR.food_base_cping.HH</t>
+  </si>
+  <si>
+    <t>I.HH_CHAR.can_go_alone_with_someone_not_at_all.HH</t>
+  </si>
+  <si>
+    <t>I.HH_CHAR.received_awarness_information.HH</t>
+  </si>
+  <si>
+    <t>I.HH_CHAR.enough_information_for_all.HH</t>
+  </si>
+  <si>
+    <t>I.HH_CHAR.rarely_never_feeling_consulted.HH</t>
+  </si>
+  <si>
+    <t>I.HH_CHAR.atlst_no_child_nutrition_scrnd.INDVHH</t>
+  </si>
+  <si>
+    <t>New_dependent_variable_name</t>
+  </si>
+  <si>
+    <t>recoded_variable_name</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>can_go_alone</t>
+  </si>
+  <si>
+    <t>can_never_go</t>
+  </si>
+  <si>
+    <t>not_applicable</t>
+  </si>
+  <si>
+    <t>can_go_accompanied_by_someone_else</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>I.HH_CHAR.can_go_alone_with_someone_not_at_all_work_market.HH</t>
+  </si>
+  <si>
+    <t>I.HH_CHAR.can_never_go_alone_work_market.HH</t>
+  </si>
+  <si>
+    <t>When work_mobility == "can_never_go" and market_mobility == "can_never_go" then yes other wise no &lt;- I.HH_CHAR.can_never_go_alone_market.HH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When work_mobility == "can_never_go" and market_mobility == "can_never_go" then yes other wise no &lt;- I.HH_CHAR.can_never_go_alone_market.HH
+</t>
+  </si>
+  <si>
+    <t>When health_mobility == "can_never_go" and wfs_mobility == "can_never_go" then yes other wise no &lt;- I.HH_CHAR.can_never_go_alone_health_wfs.HH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I.HH_CHAR.can_never_go_alone_health_wfs.HH</t>
+  </si>
+  <si>
+    <t>I.FSL.food_consumption_score.HH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,13 +881,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF930F80"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -823,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -837,681 +956,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="158">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="91">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2731,28 +2189,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C6A5BA-B847-4019-A250-8CEE44807EFF}">
-  <dimension ref="A1:H132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.41015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.52734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="56.33203125" customWidth="1"/>
-    <col min="5" max="5" width="67.88671875" customWidth="1"/>
-    <col min="6" max="6" width="59.44140625" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="56.3515625" customWidth="1"/>
+    <col min="5" max="5" width="67.87890625" customWidth="1"/>
+    <col min="6" max="6" width="59.41015625" customWidth="1"/>
+    <col min="7" max="7" width="28.87890625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.8203125" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="57.17578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="102.05859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2775,10 +2235,16 @@
         <v>188</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2798,11 +2264,19 @@
       <c r="G2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="6" t="str">
+        <f>VLOOKUP(I2,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.atlst_one_shelter_issue.HH</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J2" t="str">
+        <f>_xlfn.IFNA(H2,I2)</f>
+        <v>I.HH_CHAR.atlst_one_shelter_issue.HH</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2822,11 +2296,19 @@
       <c r="G3" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="6" t="str">
+        <f>VLOOKUP(I3,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.atlst_one_shelter_mobility.HH</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J67" si="0">_xlfn.IFNA(H3,I3)</f>
+        <v>I.HH_CHAR.atlst_one_shelter_mobility.HH</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -2846,11 +2328,19 @@
       <c r="G4" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="6" t="str">
+        <f>VLOOKUP(I4,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.pay_anythng_to_live.HH</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.pay_anythng_to_live.HH</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>42</v>
       </c>
@@ -2870,11 +2360,19 @@
       <c r="G5" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="6" t="str">
+        <f>VLOOKUP(I5,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.not_having_light.HH</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.not_having_light.HH</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2894,11 +2392,18 @@
       <c r="G6" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>comm_health_worker</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2918,11 +2423,18 @@
       <c r="G7" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>preventative_action.no_action</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2942,11 +2454,18 @@
       <c r="G8" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>debt_reason.cover_health_expenses</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2966,11 +2485,18 @@
       <c r="G9" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HEALTH.health_dist_more_60.HH</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -2990,11 +2516,19 @@
       <c r="G10" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="6" t="str">
+        <f>VLOOKUP(I10,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.atlst_one_birth_plc_home.INDVHH</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.atlst_one_birth_plc_home.INDVHH</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -3014,11 +2548,18 @@
       <c r="G11" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>I.FSL.food_source_borrow.HH</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -3038,11 +2579,19 @@
       <c r="G12" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="6" t="str">
+        <f>VLOOKUP(I12,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.incm_src_employ_business.HH</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.incm_src_employ_business.HH</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -3062,11 +2611,17 @@
       <c r="G13" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="143.35" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -3086,11 +2641,18 @@
       <c r="G14" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.emergency_cping_strategy.HH</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -3110,11 +2672,18 @@
       <c r="G15" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.food_base_cping.HH</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="52.35" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -3135,12 +2704,18 @@
         <v>190</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="J16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="39.35" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -3149,22 +2724,28 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="6" t="s">
         <v>190</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="J17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -3173,20 +2754,27 @@
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.valid_id_hh</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -3197,22 +2785,29 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>security_issues.no_concerns</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -3221,20 +2816,27 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>community_support.none</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
@@ -3245,22 +2847,27 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>230</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.received_awarness_information.HH</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -3271,68 +2878,92 @@
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="G22" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.enough_information_for_all.HH</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I23" s="6" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>feedback.faced_some_problem</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="7" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H24" s="6" t="str">
+        <f>VLOOKUP(I24,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.rarely_never_feeling_consulted.HH</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.rarely_never_feeling_consulted.HH</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
@@ -3343,22 +2974,30 @@
         <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="6" t="str">
+        <f>VLOOKUP(I25,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.atlst_one_shelter_issue.HH</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.atlst_one_shelter_issue.HH</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
@@ -3367,20 +3006,28 @@
         <v>55</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="6" t="str">
+        <f>VLOOKUP(I26,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.atlst_one_shelter_mobility.HH</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.atlst_one_shelter_mobility.HH</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
@@ -3391,22 +3038,30 @@
         <v>55</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="6" t="str">
+        <f>VLOOKUP(I27,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.pay_anythng_to_live.HH</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.pay_anythng_to_live.HH</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A28" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
@@ -3415,20 +3070,28 @@
         <v>55</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="6" t="str">
+        <f>VLOOKUP(I28,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.not_having_light.HH</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.not_having_light.HH</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -3439,20 +3102,27 @@
         <v>55</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>preventative_action.no_action</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
@@ -3463,22 +3133,29 @@
         <v>55</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>debt_reason.cover_health_expenses</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
@@ -3487,22 +3164,29 @@
         <v>55</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H31" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HEALTH.health_dist_more_60.HH</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
@@ -3511,20 +3195,27 @@
         <v>55</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>I.FSL.food_source_borrow.HH</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3535,20 +3226,28 @@
         <v>55</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H33" s="6" t="str">
+        <f>VLOOKUP(I33,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.incm_src_employ_business.HH</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.incm_src_employ_business.HH</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
@@ -3559,20 +3258,26 @@
         <v>55</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H34" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
         <v>6</v>
       </c>
@@ -3583,22 +3288,29 @@
         <v>55</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="6" t="s">
         <v>197</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.emergency_cping_strategy.HH</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
@@ -3607,22 +3319,29 @@
         <v>55</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="6" t="s">
         <v>197</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.food_base_cping.HH</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
@@ -3631,20 +3350,27 @@
         <v>55</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.valid_id_hh</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -3655,22 +3381,29 @@
         <v>55</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H38" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>security_issues.no_concerns</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A39" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -3679,20 +3412,27 @@
         <v>55</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H39" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>community_support.none</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
@@ -3703,20 +3443,27 @@
         <v>55</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H40" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.received_awarness_information.HH</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
@@ -3727,94 +3474,124 @@
         <v>55</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="H41" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.enough_information_for_all.HH</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H42" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I42" s="6" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>feedback.faced_some_problem</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="7" t="s">
+      <c r="F43" s="3"/>
+      <c r="G43" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H43" s="6" t="str">
+        <f>VLOOKUP(I43,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.rarely_never_feeling_consulted.HH</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="11" t="s">
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.rarely_never_feeling_consulted.HH</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A44" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D44" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E44" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="10" t="s">
+      <c r="F44" s="11"/>
+      <c r="G44" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H44" s="6" t="str">
+        <f>VLOOKUP(I44,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.atlst_one_shelter_issue.HH</v>
+      </c>
+      <c r="I44" s="10" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.atlst_one_shelter_issue.HH</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
@@ -3823,20 +3600,28 @@
         <v>76</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H45" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H45" s="6" t="str">
+        <f>VLOOKUP(I45,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.atlst_one_shelter_mobility.HH</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.atlst_one_shelter_mobility.HH</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A46" s="2" t="s">
         <v>42</v>
       </c>
@@ -3847,22 +3632,30 @@
         <v>76</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H46" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H46" s="6" t="str">
+        <f>VLOOKUP(I46,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.pay_anythng_to_live.HH</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.pay_anythng_to_live.HH</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A47" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
@@ -3871,22 +3664,30 @@
         <v>76</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H47" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H47" s="6" t="str">
+        <f>VLOOKUP(I47,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.not_having_light.HH</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.not_having_light.HH</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A48" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
@@ -3895,22 +3696,29 @@
         <v>76</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H48" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H48" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>debt_reason.cover_health_expenses</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
@@ -3919,20 +3727,27 @@
         <v>76</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H49" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H49" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>I.FSL.food_source_borrow.HH</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -3943,20 +3758,28 @@
         <v>76</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H50" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H50" s="6" t="str">
+        <f>VLOOKUP(I50,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.incm_src_employ_business.HH</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.incm_src_employ_business.HH</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -3967,20 +3790,26 @@
         <v>76</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H51" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H51" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J51" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
@@ -3991,22 +3820,29 @@
         <v>76</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="6" t="s">
         <v>198</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.emergency_cping_strategy.HH</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A53" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
@@ -4015,22 +3851,29 @@
         <v>76</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="6" t="s">
         <v>198</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.food_base_cping.HH</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A54" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>7</v>
@@ -4039,20 +3882,27 @@
         <v>76</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H54" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H54" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.valid_id_hh</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A55" s="2" t="s">
         <v>42</v>
       </c>
@@ -4063,22 +3913,29 @@
         <v>76</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H55" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H55" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="0"/>
+        <v>security_issues.no_concerns</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A56" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>7</v>
@@ -4087,20 +3944,27 @@
         <v>76</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H56" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H56" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="0"/>
+        <v>community_support.none</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A57" s="2" t="s">
         <v>6</v>
       </c>
@@ -4111,20 +3975,27 @@
         <v>76</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H57" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H57" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.received_awarness_information.HH</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A58" s="2" t="s">
         <v>6</v>
       </c>
@@ -4135,68 +4006,90 @@
         <v>76</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="H58" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.enough_information_for_all.HH</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H59" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I59" s="6" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="J59" t="str">
+        <f t="shared" si="0"/>
+        <v>feedback.faced_some_problem</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E60" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="7" t="s">
+      <c r="F60" s="3"/>
+      <c r="G60" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H60" s="6" t="str">
+        <f>VLOOKUP(I60,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.rarely_never_feeling_consulted.HH</v>
+      </c>
+      <c r="I60" s="7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J60" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.rarely_never_feeling_consulted.HH</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A61" s="2" t="s">
         <v>6</v>
       </c>
@@ -4207,22 +4100,30 @@
         <v>93</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H61" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H61" s="6" t="str">
+        <f>VLOOKUP(I61,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.atlst_one_shelter_issue.HH</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.atlst_one_shelter_issue.HH</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A62" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>7</v>
@@ -4231,20 +4132,27 @@
         <v>93</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H62" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H62" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="0"/>
+        <v>I.SNFI.lpg_only.HH</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A63" s="2" t="s">
         <v>42</v>
       </c>
@@ -4255,22 +4163,30 @@
         <v>93</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H63" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H63" s="6" t="str">
+        <f>VLOOKUP(I63,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.pay_anythng_to_live.HH</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.pay_anythng_to_live.HH</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A64" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>7</v>
@@ -4279,20 +4195,28 @@
         <v>93</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H64" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H64" s="6" t="str">
+        <f>VLOOKUP(I64,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.not_having_light.HH</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.not_having_light.HH</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A65" s="2" t="s">
         <v>6</v>
       </c>
@@ -4303,20 +4227,27 @@
         <v>93</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H65" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H65" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="0"/>
+        <v>debt_reason.cover_health_expenses</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A66" s="2" t="s">
         <v>6</v>
       </c>
@@ -4327,20 +4258,26 @@
         <v>93</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H66" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H66" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J66" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A67" s="2" t="s">
         <v>6</v>
       </c>
@@ -4351,65 +4288,89 @@
         <v>93</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="6" t="s">
         <v>199</v>
       </c>
       <c r="H67" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="0"/>
+        <v>I.HH_CHAR.emergency_cping_strategy.HH</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="I68" s="6" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="J68" t="str">
+        <f t="shared" ref="J68:J90" si="1">_xlfn.IFNA(H68,I68)</f>
+        <v>I.HH_CHAR.food_base_cping.HH</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F68" s="3"/>
-      <c r="G68" s="7" t="s">
+      <c r="F69" s="3"/>
+      <c r="G69" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H69" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I69" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="H69" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J69" t="str">
+        <f t="shared" si="1"/>
+        <v>enough_water</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A70" s="2" t="s">
         <v>42</v>
       </c>
@@ -4420,17 +4381,24 @@
         <v>105</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F70" s="2"/>
-      <c r="H70" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H70" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="1"/>
+        <v>I.HEALTH.health_dist_more_60.HH</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A71" s="2" t="s">
         <v>42</v>
       </c>
@@ -4441,17 +4409,25 @@
         <v>105</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F71" s="2"/>
-      <c r="H71" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H71" s="6" t="str">
+        <f>VLOOKUP(I71,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.incm_src_employ_business.HH</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="1"/>
+        <v>I.HH_CHAR.incm_src_employ_business.HH</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A72" s="2" t="s">
         <v>42</v>
       </c>
@@ -4462,17 +4438,23 @@
         <v>105</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2"/>
-      <c r="H72" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H72" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J72" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A73" s="2" t="s">
         <v>42</v>
       </c>
@@ -4483,17 +4465,24 @@
         <v>105</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F73" s="2"/>
       <c r="H73" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="1"/>
+        <v>I.HH_CHAR.emergency_cping_strategy.HH</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A74" s="2" t="s">
         <v>42</v>
       </c>
@@ -4504,17 +4493,24 @@
         <v>105</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F74" s="2"/>
       <c r="H74" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="1"/>
+        <v>I.HH_CHAR.food_base_cping.HH</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A75" s="2" t="s">
         <v>42</v>
       </c>
@@ -4525,17 +4521,24 @@
         <v>105</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F75" s="2"/>
-      <c r="H75" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H75" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="1"/>
+        <v>enough_water</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A76" s="2" t="s">
         <v>42</v>
       </c>
@@ -4546,17 +4549,24 @@
         <v>105</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F76" s="2"/>
-      <c r="H76" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H76" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="1"/>
+        <v>security_issues.no_concerns</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A77" s="2" t="s">
         <v>42</v>
       </c>
@@ -4567,17 +4577,24 @@
         <v>105</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F77" s="2"/>
-      <c r="H77" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H77" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="1"/>
+        <v>community_support.none</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A78" s="2" t="s">
         <v>42</v>
       </c>
@@ -4588,17 +4605,24 @@
         <v>105</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F78" s="2"/>
-      <c r="H78" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H78" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="1"/>
+        <v>I.HH_CHAR.received_awarness_information.HH</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A79" s="2" t="s">
         <v>42</v>
       </c>
@@ -4609,63 +4633,82 @@
         <v>105</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="H79" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="1"/>
+        <v>I.HH_CHAR.enough_information_for_all.HH</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F79" s="2"/>
-      <c r="H79" s="6" t="s">
+      <c r="F80" s="2"/>
+      <c r="H80" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I80" s="6" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+      <c r="J80" t="str">
+        <f t="shared" si="1"/>
+        <v>feedback.faced_some_problem</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A81" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="B81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7" t="s">
+      <c r="F81" s="3"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="6" t="str">
+        <f>VLOOKUP(I81,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.rarely_never_feeling_consulted.HH</v>
+      </c>
+      <c r="I81" s="7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J81" t="str">
+        <f t="shared" si="1"/>
+        <v>I.HH_CHAR.rarely_never_feeling_consulted.HH</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A82" s="2" t="s">
         <v>6</v>
       </c>
@@ -4676,20 +4719,27 @@
         <v>118</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H82" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H82" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="1"/>
+        <v>I.EDU.ind_out_of_school.INDVHH</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A83" s="2" t="s">
         <v>6</v>
       </c>
@@ -4700,20 +4750,27 @@
         <v>118</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F83" s="2"/>
       <c r="G83" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H83" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H83" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="1"/>
+        <v>I.EDU.not_send_back_to_school_hh.HH</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A84" s="2" t="s">
         <v>6</v>
       </c>
@@ -4724,20 +4781,27 @@
         <v>118</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H84" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H84" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="1"/>
+        <v>I.EDU.remote_learning_hh.HH</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A85" s="2" t="s">
         <v>6</v>
       </c>
@@ -4748,20 +4812,27 @@
         <v>118</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H85" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H85" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="1"/>
+        <v>preventative_action.no_action</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A86" s="2" t="s">
         <v>6</v>
       </c>
@@ -4772,20 +4843,27 @@
         <v>118</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H86" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H86" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="1"/>
+        <v>I.HEALTH.plw_enrolment_nfp.HH</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A87" s="2" t="s">
         <v>6</v>
       </c>
@@ -4796,20 +4874,27 @@
         <v>118</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H87" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H87" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="1"/>
+        <v>I.HEALTH.all_pregnant_women_anc.HH</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A88" s="2" t="s">
         <v>6</v>
       </c>
@@ -4820,20 +4905,27 @@
         <v>118</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H88" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H88" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="1"/>
+        <v>I.NUTRITION.child_enrolment_nfp_tota.INDVHH</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A89" s="2" t="s">
         <v>6</v>
       </c>
@@ -4844,22 +4936,30 @@
         <v>118</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H89" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H89" s="6" t="str">
+        <f>VLOOKUP(I89,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.atlst_no_child_nutrition_scrnd.INDVHH</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="1"/>
+        <v>I.HH_CHAR.atlst_no_child_nutrition_scrnd.INDVHH</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A90" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>7</v>
@@ -4868,22 +4968,30 @@
         <v>118</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H90" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H90" s="6" t="str">
+        <f>VLOOKUP(I90,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.atlst_one_birth_plc_home.INDVHH</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="1"/>
+        <v>I.HH_CHAR.atlst_one_birth_plc_home.INDVHH</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A91" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>7</v>
@@ -4892,20 +5000,27 @@
         <v>118</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H91" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H91" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J91" t="str">
+        <f>_xlfn.IFNA(H91,I91)</f>
+        <v>I.FSL.food_source_borrow.HH</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A92" s="2" t="s">
         <v>6</v>
       </c>
@@ -4916,20 +5031,28 @@
         <v>118</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H92" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H92" s="6" t="str">
+        <f>VLOOKUP(I92,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.incm_src_employ_business.HH</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" ref="J92:J135" si="2">_xlfn.IFNA(H92,I92)</f>
+        <v>I.HH_CHAR.incm_src_employ_business.HH</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="39.35" x14ac:dyDescent="0.5">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
@@ -4940,22 +5063,28 @@
         <v>118</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="6" t="s">
         <v>202</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="J93" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="39.35" x14ac:dyDescent="0.5">
       <c r="A94" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>7</v>
@@ -4964,20 +5093,26 @@
         <v>118</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="6" t="s">
         <v>202</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="J94" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A95" s="2" t="s">
         <v>6</v>
       </c>
@@ -4988,22 +5123,29 @@
         <v>118</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H95" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H95" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="2"/>
+        <v>I.WASH.handwashing_critical_times.HH</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A96" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>7</v>
@@ -5012,20 +5154,27 @@
         <v>118</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H96" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H96" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="2"/>
+        <v>I.HH_CHAR.valid_id_hh</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A97" s="2" t="s">
         <v>6</v>
       </c>
@@ -5036,188 +5185,245 @@
         <v>118</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="H97" s="6" t="s">
+      <c r="H97" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="2"/>
+        <v>I.HH_CHAR.received_awarness_information.HH</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A98" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="2"/>
+        <v>I.HH_CHAR.enough_information_for_all.HH</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H99" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I99" s="6" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="3" t="s">
+      <c r="J99" t="str">
+        <f t="shared" si="2"/>
+        <v>feedback.faced_some_problem</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A100" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E100" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F98" s="3"/>
-      <c r="G98" s="7" t="s">
+      <c r="F100" s="3"/>
+      <c r="G100" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H100" s="6" t="str">
+        <f>VLOOKUP(I100,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.rarely_never_feeling_consulted.HH</v>
+      </c>
+      <c r="I100" s="7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="4" t="s">
+      <c r="J100" t="str">
+        <f t="shared" si="2"/>
+        <v>I.HH_CHAR.rarely_never_feeling_consulted.HH</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D101" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F99" s="4"/>
-      <c r="G99" s="8" t="s">
+      <c r="F101" s="4"/>
+      <c r="G101" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="H99" s="8" t="s">
+      <c r="H101" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I101" s="8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="2" t="s">
+      <c r="J101" t="str">
+        <f t="shared" si="2"/>
+        <v>debt_reason.cover_health_expenses</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F100" s="2"/>
-      <c r="G100" s="6" t="s">
+      <c r="F102" s="2"/>
+      <c r="G102" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="H100" s="6" t="s">
+      <c r="H102" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I102" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="2" t="s">
+      <c r="J102" t="str">
+        <f t="shared" si="2"/>
+        <v>I.EDU.ind_out_of_school.INDVHH</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A103" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="F101" s="2"/>
-      <c r="G101" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F104" s="2"/>
-      <c r="G104" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="H103" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="2"/>
+        <v>I.EDU.not_send_back_to_school_hh.HH</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H104" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="2"/>
+        <v>I.EDU.remote_learning_hh.HH</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A105" s="2" t="s">
         <v>42</v>
       </c>
@@ -5228,22 +5434,27 @@
         <v>151</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>187</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F105" s="2"/>
       <c r="G105" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="H105" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H105" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" si="2"/>
+        <v>debt_reason.cover_health_expenses</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A106" s="2" t="s">
         <v>42</v>
       </c>
@@ -5254,94 +5465,123 @@
         <v>151</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="H106" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
+      <c r="H106" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J106" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A107" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="3" t="s">
+      <c r="B107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="7" t="s">
+      <c r="D107" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G107" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="H107" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H107" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" si="2"/>
+        <v>expenditures_reduce.none</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A108" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F109" s="2"/>
-      <c r="G109" s="6" t="s">
-        <v>214</v>
+        <v>243</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" si="2"/>
+        <v>I.HH_CHAR.emergency_cping_strategy.HH</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A109" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J109" t="str">
+        <f t="shared" si="2"/>
+        <v>I.HH_CHAR.food_base_cping.HH</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A110" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>7</v>
@@ -5350,20 +5590,27 @@
         <v>158</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="H110" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H110" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J110" t="str">
+        <f t="shared" si="2"/>
+        <v>I.FSL.food_source_borrow.HH</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A111" s="2" t="s">
         <v>6</v>
       </c>
@@ -5374,20 +5621,28 @@
         <v>158</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="H111" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H111" s="6" t="str">
+        <f>VLOOKUP(I111,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.incm_src_employ_business.HH</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J111" t="str">
+        <f t="shared" si="2"/>
+        <v>I.HH_CHAR.incm_src_employ_business.HH</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A112" s="2" t="s">
         <v>6</v>
       </c>
@@ -5398,22 +5653,29 @@
         <v>158</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="6" t="s">
         <v>214</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="J112" t="str">
+        <f t="shared" si="2"/>
+        <v>I.HH_CHAR.emergency_cping_strategy.HH</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A113" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>7</v>
@@ -5422,188 +5684,241 @@
         <v>158</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="6" t="s">
         <v>214</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J113" t="str">
+        <f t="shared" si="2"/>
+        <v>I.HH_CHAR.food_base_cping.HH</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="52.35" x14ac:dyDescent="0.5">
+      <c r="A114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F114" s="3"/>
-      <c r="G114" s="7" t="s">
+      <c r="D114" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="H114" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H114" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="J114" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="39.35" x14ac:dyDescent="0.5">
       <c r="A115" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="I115" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="J115" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A116" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H116" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J116" t="str">
+        <f t="shared" si="2"/>
+        <v>security_issues.no_concerns</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A117" s="3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H117" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="H117" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J117" t="str">
+        <f t="shared" si="2"/>
+        <v>community_support.none</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A118" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="H118" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J118" t="str">
+        <f t="shared" si="2"/>
+        <v>debt_reason.cover_health_expenses</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A119" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F120" s="2"/>
-      <c r="G120" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="H119" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J119" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A120" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="G120" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="I120" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="J120" t="str">
+        <f t="shared" si="2"/>
+        <v>I.HH_CHAR.emergency_cping_strategy.HH</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A121" s="2" t="s">
         <v>42</v>
       </c>
@@ -5614,20 +5929,27 @@
         <v>170</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H121" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H121" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="J121" t="str">
+        <f t="shared" si="2"/>
+        <v>comm_health_worker</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A122" s="2" t="s">
         <v>42</v>
       </c>
@@ -5638,20 +5960,27 @@
         <v>170</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H122" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H122" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="J122" t="str">
+        <f t="shared" si="2"/>
+        <v>preventative_action.no_action</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A123" s="2" t="s">
         <v>42</v>
       </c>
@@ -5662,20 +5991,27 @@
         <v>170</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H123" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H123" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J123" t="str">
+        <f t="shared" si="2"/>
+        <v>I.HEALTH.plw_enrolment_nfp.HH</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A124" s="2" t="s">
         <v>42</v>
       </c>
@@ -5686,20 +6022,27 @@
         <v>170</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H124" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H124" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J124" t="str">
+        <f t="shared" si="2"/>
+        <v>I.HEALTH.all_pregnant_women_anc.HH</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A125" s="2" t="s">
         <v>42</v>
       </c>
@@ -5710,20 +6053,27 @@
         <v>170</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H125" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H125" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I125" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="J125" t="str">
+        <f t="shared" si="2"/>
+        <v>nutrition_pack</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A126" s="2" t="s">
         <v>42</v>
       </c>
@@ -5734,20 +6084,27 @@
         <v>170</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H126" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H126" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J126" t="str">
+        <f t="shared" si="2"/>
+        <v>I.NUTRITION.child_enrolment_nfp_tota.INDVHH</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A127" s="2" t="s">
         <v>42</v>
       </c>
@@ -5758,20 +6115,28 @@
         <v>170</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H127" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H127" s="6" t="str">
+        <f>VLOOKUP(I127,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.atlst_one_birth_plc_home.INDVHH</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="J127" t="str">
+        <f t="shared" si="2"/>
+        <v>I.HH_CHAR.atlst_one_birth_plc_home.INDVHH</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A128" s="2" t="s">
         <v>42</v>
       </c>
@@ -5782,20 +6147,28 @@
         <v>170</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H128" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H128" s="6" t="str">
+        <f>VLOOKUP(I128,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.incm_src_employ_business.HH</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J128" t="str">
+        <f t="shared" si="2"/>
+        <v>I.HH_CHAR.incm_src_employ_business.HH</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A129" s="2" t="s">
         <v>42</v>
       </c>
@@ -5806,20 +6179,27 @@
         <v>170</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H129" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H129" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J129" t="str">
+        <f t="shared" si="2"/>
+        <v>I.WASH.handwashing_critical_times.HH</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A130" s="2" t="s">
         <v>42</v>
       </c>
@@ -5830,20 +6210,27 @@
         <v>170</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H130" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H130" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J130" t="str">
+        <f t="shared" si="2"/>
+        <v>security_issues.no_concerns</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A131" s="2" t="s">
         <v>42</v>
       </c>
@@ -5854,20 +6241,27 @@
         <v>170</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H131" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H131" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J131" t="str">
+        <f t="shared" si="2"/>
+        <v>community_support.none</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A132" s="2" t="s">
         <v>42</v>
       </c>
@@ -5878,352 +6272,1020 @@
         <v>170</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="H132" s="6" t="s">
+      <c r="H132" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I132" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J132" t="str">
+        <f t="shared" si="2"/>
+        <v>I.HH_CHAR.received_awarness_information.HH</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A133" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J133" t="str">
+        <f t="shared" si="2"/>
+        <v>I.HH_CHAR.enough_information_for_all.HH</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A134" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H134" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J134" t="str">
+        <f t="shared" si="2"/>
+        <v>feedback.faced_some_problem</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A135" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H135" s="6" t="str">
+        <f>VLOOKUP(I135,Sheet1!$A$1:$B$14,2,FALSE)</f>
+        <v>I.HH_CHAR.rarely_never_feeling_consulted.HH</v>
+      </c>
+      <c r="I135" s="6" t="s">
         <v>233</v>
       </c>
+      <c r="J135" t="str">
+        <f t="shared" si="2"/>
+        <v>I.HH_CHAR.rarely_never_feeling_consulted.HH</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H132" xr:uid="{B003D811-989D-4284-86D3-AAF951A5FC10}"/>
-  <conditionalFormatting sqref="D129:D132">
-    <cfRule type="duplicateValues" dxfId="157" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24">
-    <cfRule type="duplicateValues" dxfId="156" priority="178"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43">
-    <cfRule type="duplicateValues" dxfId="155" priority="177"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D60">
-    <cfRule type="duplicateValues" dxfId="154" priority="176"/>
+  <conditionalFormatting sqref="D132:D135">
+    <cfRule type="duplicateValues" dxfId="90" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="duplicateValues" dxfId="89" priority="182"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="duplicateValues" dxfId="88" priority="181"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="duplicateValues" dxfId="87" priority="180"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="duplicateValues" dxfId="153" priority="175"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="duplicateValues" dxfId="152" priority="174"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="duplicateValues" dxfId="151" priority="173"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D27">
-    <cfRule type="duplicateValues" dxfId="150" priority="172"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D46">
-    <cfRule type="duplicateValues" dxfId="149" priority="171"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D63">
-    <cfRule type="duplicateValues" dxfId="148" priority="170"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D100:D101">
-    <cfRule type="duplicateValues" dxfId="147" priority="168"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D82">
-    <cfRule type="duplicateValues" dxfId="146" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="179"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="duplicateValues" dxfId="85" priority="178"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="duplicateValues" dxfId="84" priority="177"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D28">
+    <cfRule type="duplicateValues" dxfId="83" priority="176"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:D47">
+    <cfRule type="duplicateValues" dxfId="82" priority="175"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:D64">
+    <cfRule type="duplicateValues" dxfId="81" priority="174"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D102:D103">
+    <cfRule type="duplicateValues" dxfId="80" priority="172"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="duplicateValues" dxfId="145" priority="164"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D102">
-    <cfRule type="duplicateValues" dxfId="144" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="170"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="duplicateValues" dxfId="78" priority="168"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104">
+    <cfRule type="duplicateValues" dxfId="77" priority="166"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="143" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D121">
+    <cfRule type="duplicateValues" dxfId="75" priority="162"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="duplicateValues" dxfId="74" priority="161"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="duplicateValues" dxfId="73" priority="160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="duplicateValues" dxfId="72" priority="159"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="duplicateValues" dxfId="71" priority="158"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="duplicateValues" dxfId="70" priority="157"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65">
+    <cfRule type="duplicateValues" dxfId="69" priority="156"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D101">
+    <cfRule type="duplicateValues" dxfId="68" priority="155"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D105">
+    <cfRule type="duplicateValues" dxfId="67" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D118">
-    <cfRule type="duplicateValues" dxfId="142" priority="158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="141" priority="157"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="duplicateValues" dxfId="140" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="153"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="duplicateValues" dxfId="65" priority="151"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="duplicateValues" dxfId="64" priority="149"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86:D87">
+    <cfRule type="duplicateValues" dxfId="63" priority="145"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="duplicateValues" dxfId="62" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D127">
+    <cfRule type="duplicateValues" dxfId="61" priority="138"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D89">
+    <cfRule type="duplicateValues" dxfId="60" priority="137"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="duplicateValues" dxfId="59" priority="136"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90">
+    <cfRule type="duplicateValues" dxfId="58" priority="135"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D123:D126 D1:D2 D62 D69 D107 D7:D9 D82 D128:D129 D11">
+    <cfRule type="duplicateValues" dxfId="57" priority="183"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="duplicateValues" dxfId="56" priority="134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="duplicateValues" dxfId="55" priority="133"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D91">
+    <cfRule type="duplicateValues" dxfId="54" priority="132"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D110">
+    <cfRule type="duplicateValues" dxfId="53" priority="131"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D111">
+    <cfRule type="duplicateValues" dxfId="52" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="duplicateValues" dxfId="51" priority="129"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="duplicateValues" dxfId="50" priority="128"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="duplicateValues" dxfId="49" priority="127"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="duplicateValues" dxfId="48" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="duplicateValues" dxfId="47" priority="125"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D66">
+    <cfRule type="duplicateValues" dxfId="46" priority="124"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="duplicateValues" dxfId="45" priority="123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D106">
+    <cfRule type="duplicateValues" dxfId="44" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119">
-    <cfRule type="duplicateValues" dxfId="139" priority="155"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="duplicateValues" dxfId="138" priority="154"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47">
-    <cfRule type="duplicateValues" dxfId="137" priority="153"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="duplicateValues" dxfId="136" priority="152"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D99">
-    <cfRule type="duplicateValues" dxfId="135" priority="151"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D103">
-    <cfRule type="duplicateValues" dxfId="134" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D14">
+    <cfRule type="duplicateValues" dxfId="42" priority="184"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="duplicateValues" dxfId="41" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="duplicateValues" dxfId="40" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D67">
+    <cfRule type="duplicateValues" dxfId="39" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="duplicateValues" dxfId="38" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108">
+    <cfRule type="duplicateValues" dxfId="37" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D112">
+    <cfRule type="duplicateValues" dxfId="36" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D120">
+    <cfRule type="duplicateValues" dxfId="35" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="duplicateValues" dxfId="34" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="duplicateValues" dxfId="33" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="duplicateValues" dxfId="32" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="duplicateValues" dxfId="31" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109">
+    <cfRule type="duplicateValues" dxfId="30" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D113">
+    <cfRule type="duplicateValues" dxfId="29" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="duplicateValues" dxfId="28" priority="105"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D94">
+    <cfRule type="duplicateValues" dxfId="27" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115">
-    <cfRule type="duplicateValues" dxfId="133" priority="149"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="132" priority="147"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
-    <cfRule type="duplicateValues" dxfId="131" priority="145"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85:D86">
-    <cfRule type="duplicateValues" dxfId="130" priority="141"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="duplicateValues" dxfId="129" priority="136"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D124">
-    <cfRule type="duplicateValues" dxfId="128" priority="134"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="duplicateValues" dxfId="127" priority="133"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="duplicateValues" dxfId="126" priority="132"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
-    <cfRule type="duplicateValues" dxfId="125" priority="131"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D120:D123 D1:D2 D61 D68 D105 D7:D9 D81 D125:D126 D11">
-    <cfRule type="duplicateValues" dxfId="124" priority="179"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="123" priority="130"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48">
-    <cfRule type="duplicateValues" dxfId="122" priority="129"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90">
-    <cfRule type="duplicateValues" dxfId="121" priority="128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D108">
-    <cfRule type="duplicateValues" dxfId="120" priority="127"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D109">
-    <cfRule type="duplicateValues" dxfId="119" priority="126"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="duplicateValues" dxfId="118" priority="125"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="duplicateValues" dxfId="117" priority="124"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="116" priority="123"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="duplicateValues" dxfId="115" priority="122"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50">
-    <cfRule type="duplicateValues" dxfId="114" priority="121"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
-    <cfRule type="duplicateValues" dxfId="113" priority="120"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="duplicateValues" dxfId="112" priority="119"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D104">
-    <cfRule type="duplicateValues" dxfId="111" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D95">
+    <cfRule type="duplicateValues" dxfId="25" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="duplicateValues" dxfId="24" priority="98"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="duplicateValues" dxfId="23" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D96">
+    <cfRule type="duplicateValues" dxfId="22" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="duplicateValues" dxfId="21" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="duplicateValues" dxfId="20" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D76">
+    <cfRule type="duplicateValues" dxfId="19" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116">
-    <cfRule type="duplicateValues" dxfId="110" priority="117"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D14">
-    <cfRule type="duplicateValues" dxfId="109" priority="180"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="duplicateValues" dxfId="108" priority="116"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51">
-    <cfRule type="duplicateValues" dxfId="107" priority="115"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="duplicateValues" dxfId="106" priority="114"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="duplicateValues" dxfId="105" priority="113"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D106">
-    <cfRule type="duplicateValues" dxfId="104" priority="112"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D110">
-    <cfRule type="duplicateValues" dxfId="103" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D130">
+    <cfRule type="duplicateValues" dxfId="17" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="duplicateValues" dxfId="16" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="duplicateValues" dxfId="15" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D117">
-    <cfRule type="duplicateValues" dxfId="102" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="duplicateValues" dxfId="101" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="duplicateValues" dxfId="100" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="duplicateValues" dxfId="99" priority="107"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73">
-    <cfRule type="duplicateValues" dxfId="98" priority="106"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D107">
-    <cfRule type="duplicateValues" dxfId="97" priority="105"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D111">
-    <cfRule type="duplicateValues" dxfId="96" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="duplicateValues" dxfId="95" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D131">
+    <cfRule type="duplicateValues" dxfId="13" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D77">
+    <cfRule type="duplicateValues" dxfId="12" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92">
-    <cfRule type="duplicateValues" dxfId="94" priority="100"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D112">
-    <cfRule type="duplicateValues" dxfId="93" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="185"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15 D17:D20">
+    <cfRule type="duplicateValues" dxfId="10" priority="186"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D24">
+    <cfRule type="duplicateValues" dxfId="9" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D43">
+    <cfRule type="duplicateValues" dxfId="8" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57:D60">
+    <cfRule type="duplicateValues" dxfId="7" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D78:D81">
+    <cfRule type="duplicateValues" dxfId="6" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97:D100">
+    <cfRule type="duplicateValues" dxfId="5" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="duplicateValues" dxfId="92" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="duplicateValues" dxfId="91" priority="94"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="duplicateValues" dxfId="90" priority="92"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94">
-    <cfRule type="duplicateValues" dxfId="89" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="88" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D54">
-    <cfRule type="duplicateValues" dxfId="87" priority="87"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="duplicateValues" dxfId="86" priority="86"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D113">
-    <cfRule type="duplicateValues" dxfId="85" priority="85"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D127">
-    <cfRule type="duplicateValues" dxfId="84" priority="84"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="duplicateValues" dxfId="83" priority="83"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="duplicateValues" dxfId="82" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D114">
-    <cfRule type="duplicateValues" dxfId="81" priority="81"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D128">
-    <cfRule type="duplicateValues" dxfId="80" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
-    <cfRule type="duplicateValues" dxfId="79" priority="79"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D91">
-    <cfRule type="duplicateValues" dxfId="78" priority="181"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D19">
-    <cfRule type="duplicateValues" dxfId="77" priority="182"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D23">
-    <cfRule type="duplicateValues" dxfId="76" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D42">
-    <cfRule type="duplicateValues" dxfId="75" priority="77"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D59">
-    <cfRule type="duplicateValues" dxfId="74" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D77:D80">
-    <cfRule type="duplicateValues" dxfId="73" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D95:D98">
-    <cfRule type="duplicateValues" dxfId="72" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H100">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H102">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H118">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H121">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H120">
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H122">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H123">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H126">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H93">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="255.64453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.703125" customWidth="1"/>
+    <col min="7" max="7" width="36.05859375" customWidth="1"/>
+    <col min="8" max="8" width="57.703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="208.35" x14ac:dyDescent="0.5">
+      <c r="A8" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A21"/>
+      <c r="F21" t="s">
+        <v>252</v>
+      </c>
+      <c r="G21" t="s">
+        <v>253</v>
+      </c>
+      <c r="H21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A22"/>
+      <c r="F22" t="s">
+        <v>257</v>
+      </c>
+      <c r="G22" t="s">
+        <v>256</v>
+      </c>
+      <c r="H22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A23"/>
+      <c r="F23" t="s">
+        <v>254</v>
+      </c>
+      <c r="G23" t="s">
+        <v>256</v>
+      </c>
+      <c r="H23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A24"/>
+      <c r="F24" t="s">
+        <v>255</v>
+      </c>
+      <c r="G24" t="s">
+        <v>256</v>
+      </c>
+      <c r="H24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A25"/>
+      <c r="F25" t="s">
+        <v>256</v>
+      </c>
+      <c r="G25" t="s">
+        <v>256</v>
+      </c>
+      <c r="H25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A26"/>
+      <c r="F26" t="s">
+        <v>257</v>
+      </c>
+      <c r="G26" t="s">
+        <v>257</v>
+      </c>
+      <c r="H26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A27"/>
+      <c r="F27" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A28"/>
+      <c r="F28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G28" t="s">
+        <v>255</v>
+      </c>
+      <c r="H28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A29"/>
+      <c r="F29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" t="s">
+        <v>254</v>
+      </c>
+      <c r="H29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A34"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A35"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A36"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A37"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A38"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A39"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A40"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A42"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A43"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A46"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A47"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A49"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A50"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A51"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A52"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A53"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A54"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A55"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A56"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A57"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A58"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A59"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A60"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A61"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A62"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A63"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A64"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A65"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A66"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A67"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A68"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A69"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A70"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A71"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A72"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A73"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A74"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A75"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A76"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A77"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A78"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A79"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A80"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A81"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A82"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A83"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A84"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A85"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A86"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A87"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A88"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A89"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A90"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A91"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A92"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A93"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A94"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A95"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A96"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A97"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A98"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A99"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A100"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A101"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A102"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A103"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A104"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A105"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A106"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A107"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A108"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A109"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A110"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A111"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A112:A1048576 A1:A7 A9:A14">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="2" width="33.17578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.234375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A1" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>